--- a/SCADA/pacote modbus/tabelas modbus pic.xlsx
+++ b/SCADA/pacote modbus/tabelas modbus pic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio T. Brito\Dropbox\IFCE\Disciplinas_IFCE\Apostilas IFCE\Micro\Programas oficiais\SCADA\pacote modbus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ABB4BC-6210-45C6-BA1B-8E5ECE81A394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFFEF73-8A2F-4751-BF9F-66BCFB0143BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07AA1690-480C-4E54-9118-C5675DA0A3C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{07AA1690-480C-4E54-9118-C5675DA0A3C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="rtu" sheetId="1" r:id="rId1"/>
+    <sheet name="tcp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
   <si>
     <t>AN1</t>
   </si>
@@ -193,6 +194,42 @@
   </si>
   <si>
     <t>detalhes</t>
+  </si>
+  <si>
+    <t>MBMAP</t>
+  </si>
+  <si>
+    <t>SLAVE ID</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>http://www.simplymodbus.ca/TCPmanual.htm</t>
+  </si>
+  <si>
+    <t>Resposta</t>
+  </si>
+  <si>
+    <t>dados:</t>
+  </si>
+  <si>
+    <t>I++</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>http://easymodbustcp.net/en/</t>
+  </si>
+  <si>
+    <t>no bytes</t>
   </si>
 </sst>
 </file>
@@ -230,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -444,6 +487,105 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -453,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +717,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,13 +735,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,6 +794,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>172325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>134273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6CF702-590C-43F3-92D8-AE35E706B010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1962150"/>
+          <a:ext cx="6268325" cy="6611273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739021EA-95D7-48CA-955F-FC702F1B2D22}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -963,29 +1197,29 @@
       <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="33"/>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1567,4 +1801,182 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C4926C-5776-4620-BACA-D28A738664D3}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61">
+        <v>13</v>
+      </c>
+      <c r="C2" s="61">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61">
+        <v>0</v>
+      </c>
+      <c r="E2" s="61">
+        <v>0</v>
+      </c>
+      <c r="F2" s="61">
+        <v>6</v>
+      </c>
+      <c r="G2" s="62">
+        <v>1</v>
+      </c>
+      <c r="H2" s="65">
+        <v>4</v>
+      </c>
+      <c r="I2" s="63">
+        <v>0</v>
+      </c>
+      <c r="J2" s="64"/>
+      <c r="K2" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:17" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="51">
+        <v>4</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{2AD7B076-D12A-449B-817F-BB7512E8A2D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>